--- a/Multiknapsack/results/random_recourse/singlecut/M20_N20_T10_a25_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M20_N20_T10_a25_ccg.xlsx
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-30.267831838145554</v>
+        <v>-30.2881515617603</v>
       </c>
       <c r="C2">
-        <v>4171.063306926</v>
+        <v>4861.067155386</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>53300</v>
+        <v>39980</v>
       </c>
       <c r="H2">
-        <v>53556</v>
+        <v>40167</v>
       </c>
       <c r="I2">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -506,7 +506,7 @@
         <v>-28.38584682602638</v>
       </c>
       <c r="C3">
-        <v>1643.041219016</v>
+        <v>4445.825349343</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -532,28 +532,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-31.006620070868525</v>
+        <v>-31.04485911323924</v>
       </c>
       <c r="C4">
-        <v>3734.795140434</v>
+        <v>5056.684894054</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>48860</v>
+        <v>31100</v>
       </c>
       <c r="H4">
-        <v>49093</v>
+        <v>31241</v>
       </c>
       <c r="I4">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-31.010826336444822</v>
+        <v>-31.65972515085631</v>
       </c>
       <c r="C5">
-        <v>2078.953227815</v>
+        <v>3638.795911001</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>39980</v>
+        <v>8900</v>
       </c>
       <c r="H5">
-        <v>40167</v>
+        <v>8926</v>
       </c>
       <c r="I5">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -590,28 +590,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-31.830512533122647</v>
+        <v>-37.6008863360471</v>
       </c>
       <c r="C6">
-        <v>3430.411300432</v>
+        <v>3601.059707079</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>44420</v>
+        <v>4460</v>
       </c>
       <c r="H6">
-        <v>44630</v>
+        <v>4463</v>
       </c>
       <c r="I6">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -619,28 +619,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-28.16058295491581</v>
+        <v>-28.161569432245376</v>
       </c>
       <c r="C7">
-        <v>3118.966709703</v>
+        <v>5427.877869144</v>
       </c>
       <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
       <c r="F7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>57740</v>
+        <v>48860</v>
       </c>
       <c r="H7">
-        <v>58019</v>
+        <v>49093</v>
       </c>
       <c r="I7">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -648,28 +648,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-29.551043634795917</v>
+        <v>-29.56039280930745</v>
       </c>
       <c r="C8">
-        <v>1938.982174194</v>
+        <v>4376.698001627</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>39980</v>
+        <v>35540</v>
       </c>
       <c r="H8">
-        <v>40167</v>
+        <v>35704</v>
       </c>
       <c r="I8">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -680,7 +680,7 @@
         <v>-31.87099218488459</v>
       </c>
       <c r="C9">
-        <v>1564.73958007</v>
+        <v>3018.244549324</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -706,28 +706,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-30.619920890283094</v>
+        <v>-35.95295833942865</v>
       </c>
       <c r="C10">
-        <v>4345.638336553</v>
+        <v>3605.622403196</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>35540</v>
+        <v>4460</v>
       </c>
       <c r="H10">
-        <v>35704</v>
+        <v>4463</v>
       </c>
       <c r="I10">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -735,28 +735,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-27.04414358525691</v>
+        <v>-27.079519675940997</v>
       </c>
       <c r="C11">
-        <v>3749.135481531</v>
+        <v>4778.387406645</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>35540</v>
+        <v>26660</v>
       </c>
       <c r="H11">
-        <v>35704</v>
+        <v>26778</v>
       </c>
       <c r="I11">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.030729303129882812</v>
+        <v>0.07289604611230469</v>
       </c>
       <c r="E2">
         <v>30.54399</v>
@@ -814,132 +814,13 @@
         <v>-35.95295833942865</v>
       </c>
       <c r="C3">
-        <v>0.2766955640267812</v>
+        <v>0.21056776711159644</v>
       </c>
       <c r="D3">
-        <v>1000.1815137269863</v>
+        <v>3600.1520621690693</v>
       </c>
       <c r="E3">
         <v>2.39716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-32.56899782601229</v>
-      </c>
-      <c r="C4">
-        <v>0.19729460190530543</v>
-      </c>
-      <c r="D4">
-        <v>1000.2191281983064</v>
-      </c>
-      <c r="E4">
-        <v>0.60931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-31.812835150689864</v>
-      </c>
-      <c r="C5">
-        <v>0.09950872622567396</v>
-      </c>
-      <c r="D5">
-        <v>40.30785298221179</v>
-      </c>
-      <c r="E5">
-        <v>0.44641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-31.124370254788882</v>
-      </c>
-      <c r="C6">
-        <v>0.09364402921404255</v>
-      </c>
-      <c r="D6">
-        <v>80.35074695029455</v>
-      </c>
-      <c r="E6">
-        <v>0.42104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-30.726256341003875</v>
-      </c>
-      <c r="C7">
-        <v>0.09973599186234061</v>
-      </c>
-      <c r="D7">
-        <v>67.52835461390393</v>
-      </c>
-      <c r="E7">
-        <v>0.20415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-30.659707464151698</v>
-      </c>
-      <c r="C8">
-        <v>0.09555726289625686</v>
-      </c>
-      <c r="D8">
-        <v>128.7827684351891</v>
-      </c>
-      <c r="E8">
-        <v>0.14332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-30.624886805150446</v>
-      </c>
-      <c r="C9">
-        <v>0.9494135621466968</v>
-      </c>
-      <c r="D9">
-        <v>1000.2869662583396</v>
-      </c>
-      <c r="E9">
-        <v>0.0502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-30.619920890283094</v>
-      </c>
-      <c r="C10">
-        <v>2.7429092153314656</v>
-      </c>
-      <c r="D10">
-        <v>1000.1425023379346</v>
-      </c>
-      <c r="E10">
-        <v>0.03183</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +830,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -983,7 +864,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02521215209387207</v>
+        <v>0.04142070060314942</v>
       </c>
       <c r="E2">
         <v>30.08334</v>
@@ -1000,7 +881,7 @@
         <v>0.09597356117588031</v>
       </c>
       <c r="D3">
-        <v>15.256435817126464</v>
+        <v>31.150812453486573</v>
       </c>
       <c r="E3">
         <v>2.39853</v>
@@ -1017,7 +898,7 @@
         <v>0.09947800328788706</v>
       </c>
       <c r="D4">
-        <v>38.447598576556764</v>
+        <v>62.47849182990906</v>
       </c>
       <c r="E4">
         <v>1.33372</v>
@@ -1034,7 +915,7 @@
         <v>0.0866450931350308</v>
       </c>
       <c r="D5">
-        <v>72.81050905362964</v>
+        <v>115.13590532465369</v>
       </c>
       <c r="E5">
         <v>0.56047</v>
@@ -1051,7 +932,7 @@
         <v>0.09780841889670666</v>
       </c>
       <c r="D6">
-        <v>486.13354020348805</v>
+        <v>786.6602728127369</v>
       </c>
       <c r="E6">
         <v>0.22396</v>
@@ -1068,7 +949,7 @@
         <v>0.09526071920421654</v>
       </c>
       <c r="D7">
-        <v>126.47047736446252</v>
+        <v>176.18992726377917</v>
       </c>
       <c r="E7">
         <v>0.13723</v>
@@ -1079,50 +960,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-27.079519346763043</v>
+        <v>-27.079519675940997</v>
       </c>
       <c r="C8">
-        <v>1.5391277407323738</v>
+        <v>1.1198047785770053</v>
       </c>
       <c r="D8">
-        <v>1000.1294197698594</v>
+        <v>3600.168705842511</v>
       </c>
       <c r="E8">
         <v>0.11844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-27.045236263591228</v>
-      </c>
-      <c r="C9">
-        <v>0.6367355560995255</v>
-      </c>
-      <c r="D9">
-        <v>1000.1976058581142</v>
-      </c>
-      <c r="E9">
-        <v>0.00418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-27.04414358525691</v>
-      </c>
-      <c r="C10">
-        <v>0.46950685771992917</v>
-      </c>
-      <c r="D10">
-        <v>1000.1045685132559</v>
-      </c>
-      <c r="E10">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +979,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1166,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>1.031390380451172</v>
+        <v>0.9512556338392334</v>
       </c>
       <c r="E2">
         <v>30.15603</v>
@@ -1183,7 +1030,7 @@
         <v>0.08584981659294406</v>
       </c>
       <c r="D3">
-        <v>7.1596474268383785</v>
+        <v>13.56400134089148</v>
       </c>
       <c r="E3">
         <v>2.63036</v>
@@ -1200,7 +1047,7 @@
         <v>0.09673963549158436</v>
       </c>
       <c r="D4">
-        <v>54.23637064499426</v>
+        <v>95.36898842724158</v>
       </c>
       <c r="E4">
         <v>0.98108</v>
@@ -1217,7 +1064,7 @@
         <v>0.0953299050333176</v>
       </c>
       <c r="D5">
-        <v>42.86026679768164</v>
+        <v>64.5163071648136</v>
       </c>
       <c r="E5">
         <v>0.46246</v>
@@ -1234,7 +1081,7 @@
         <v>0.09869025684466433</v>
       </c>
       <c r="D6">
-        <v>63.91786396241943</v>
+        <v>89.7918121228075</v>
       </c>
       <c r="E6">
         <v>0.3972</v>
@@ -1251,7 +1098,7 @@
         <v>0.09657370548501658</v>
       </c>
       <c r="D7">
-        <v>75.24411607042627</v>
+        <v>137.30060611975122</v>
       </c>
       <c r="E7">
         <v>0.13499</v>
@@ -1268,7 +1115,7 @@
         <v>0.09983708845638196</v>
       </c>
       <c r="D8">
-        <v>149.26706953241077</v>
+        <v>264.97994245668104</v>
       </c>
       <c r="E8">
         <v>0.09942</v>
@@ -1285,7 +1132,7 @@
         <v>0.09675982764719858</v>
       </c>
       <c r="D9">
-        <v>149.80400349508227</v>
+        <v>225.57865153016357</v>
       </c>
       <c r="E9">
         <v>0.11343</v>
@@ -1302,7 +1149,7 @@
         <v>0.09692431127022484</v>
       </c>
       <c r="D10">
-        <v>224.37155716186732</v>
+        <v>352.6187027969043</v>
       </c>
       <c r="E10">
         <v>0.05927</v>
@@ -1313,67 +1160,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-30.28815150746224</v>
+        <v>-30.2881515617603</v>
       </c>
       <c r="C11">
-        <v>0.4292821114827373</v>
+        <v>0.3806789792861005</v>
       </c>
       <c r="D11">
-        <v>1000.1606067287555</v>
+        <v>3600.1664167038434</v>
       </c>
       <c r="E11">
-        <v>0.0475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-30.27944808162873</v>
-      </c>
-      <c r="C12">
-        <v>1.3853013527403006</v>
-      </c>
-      <c r="D12">
-        <v>1000.2158814067454</v>
-      </c>
-      <c r="E12">
-        <v>0.01611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-30.268111356568546</v>
-      </c>
-      <c r="C13">
-        <v>0.09793239587485014</v>
-      </c>
-      <c r="D13">
-        <v>380.40794109287</v>
-      </c>
-      <c r="E13">
-        <v>0.00712</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-30.267831838145554</v>
-      </c>
-      <c r="C14">
-        <v>0.727361074529622</v>
-      </c>
-      <c r="D14">
-        <v>1000.1952625419517</v>
-      </c>
-      <c r="E14">
-        <v>0.00045</v>
+        <v>0.04784</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1213,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.030810762880737304</v>
+        <v>0.03220677029931641</v>
       </c>
       <c r="E2">
         <v>31.50958</v>
@@ -1434,7 +1230,7 @@
         <v>0.09513036293521501</v>
       </c>
       <c r="D3">
-        <v>10.099976515228516</v>
+        <v>7.9199001673636475</v>
       </c>
       <c r="E3">
         <v>2.95766</v>
@@ -1451,7 +1247,7 @@
         <v>0.08564904738201033</v>
       </c>
       <c r="D4">
-        <v>54.79589786822046</v>
+        <v>68.58213990184973</v>
       </c>
       <c r="E4">
         <v>0.42176</v>
@@ -1468,7 +1264,7 @@
         <v>0.09992136207468515</v>
       </c>
       <c r="D5">
-        <v>48.684196394382205</v>
+        <v>59.75060144003857</v>
       </c>
       <c r="E5">
         <v>0.28689</v>
@@ -1485,7 +1281,7 @@
         <v>0.09991650011669319</v>
       </c>
       <c r="D6">
-        <v>57.47168635184399</v>
+        <v>80.2076550268302</v>
       </c>
       <c r="E6">
         <v>0.09821</v>
@@ -1502,7 +1298,7 @@
         <v>0.09252333228067672</v>
       </c>
       <c r="D7">
-        <v>175.97158925787633</v>
+        <v>233.3805909573457</v>
       </c>
       <c r="E7">
         <v>0.09355</v>
@@ -1519,7 +1315,7 @@
         <v>0.09919086672438468</v>
       </c>
       <c r="D8">
-        <v>83.700724692885</v>
+        <v>106.7570819975719</v>
       </c>
       <c r="E8">
         <v>0.0294</v>
@@ -1536,7 +1332,7 @@
         <v>0.09912510303459585</v>
       </c>
       <c r="D9">
-        <v>203.50826358896302</v>
+        <v>280.56431433599596</v>
       </c>
       <c r="E9">
         <v>0.01872</v>
@@ -1550,10 +1346,10 @@
         <v>-28.38584682602638</v>
       </c>
       <c r="C10">
-        <v>2.0669724428154326</v>
+        <v>1.72640678568461</v>
       </c>
       <c r="D10">
-        <v>1000.1731665801196</v>
+        <v>3600.2771980946964</v>
       </c>
       <c r="E10">
         <v>0.0</v>
@@ -1565,6 +1361,317 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-157.11014932165884</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.03291916216052246</v>
+      </c>
+      <c r="E2">
+        <v>30.43484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-39.04920997488929</v>
+      </c>
+      <c r="C3">
+        <v>0.09708769551332842</v>
+      </c>
+      <c r="D3">
+        <v>21.477894049915893</v>
+      </c>
+      <c r="E3">
+        <v>2.54883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-35.48411314480903</v>
+      </c>
+      <c r="C4">
+        <v>0.09997183587943215</v>
+      </c>
+      <c r="D4">
+        <v>814.6347766772827</v>
+      </c>
+      <c r="E4">
+        <v>2.20744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-31.609093360397026</v>
+      </c>
+      <c r="C5">
+        <v>0.09974384271871917</v>
+      </c>
+      <c r="D5">
+        <v>75.12185878862769</v>
+      </c>
+      <c r="E5">
+        <v>0.39967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-31.347853648125536</v>
+      </c>
+      <c r="C6">
+        <v>0.08595090383692074</v>
+      </c>
+      <c r="D6">
+        <v>114.84809258434962</v>
+      </c>
+      <c r="E6">
+        <v>0.33391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-31.133850603741735</v>
+      </c>
+      <c r="C7">
+        <v>0.0977901483178447</v>
+      </c>
+      <c r="D7">
+        <v>213.67270116983363</v>
+      </c>
+      <c r="E7">
+        <v>0.07014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-31.119426826100188</v>
+      </c>
+      <c r="C8">
+        <v>0.09939097804973836</v>
+      </c>
+      <c r="D8">
+        <v>203.51879874414416</v>
+      </c>
+      <c r="E8">
+        <v>0.04272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-31.04485911323924</v>
+      </c>
+      <c r="C9">
+        <v>1.383017319154166</v>
+      </c>
+      <c r="D9">
+        <v>3600.2229683417117</v>
+      </c>
+      <c r="E9">
+        <v>0.05762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-157.84303131657305</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.037579013085083005</v>
+      </c>
+      <c r="E2">
+        <v>26.54123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-39.84604607056181</v>
+      </c>
+      <c r="C3">
+        <v>0.09930956740776001</v>
+      </c>
+      <c r="D3">
+        <v>34.59419330766821</v>
+      </c>
+      <c r="E3">
+        <v>3.30898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-31.65972515085631</v>
+      </c>
+      <c r="C4">
+        <v>0.20186845860049837</v>
+      </c>
+      <c r="D4">
+        <v>3600.1567217740567</v>
+      </c>
+      <c r="E4">
+        <v>0.81306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-163.23013416781706</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>0.049768711134277346</v>
+      </c>
+      <c r="E2">
+        <v>30.94035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-37.6008863360471</v>
+      </c>
+      <c r="C3">
+        <v>0.1134482505155273</v>
+      </c>
+      <c r="D3">
+        <v>3600.554019678817</v>
+      </c>
+      <c r="E3">
+        <v>2.72723</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1594,16 +1701,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-157.11014932165884</v>
+        <v>-140.6510758175787</v>
       </c>
       <c r="C2">
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.034065904183471676</v>
+        <v>0.03818469396923828</v>
       </c>
       <c r="E2">
-        <v>30.43484</v>
+        <v>27.89847</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1611,16 +1718,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-39.04920997488929</v>
+        <v>-35.63461617042404</v>
       </c>
       <c r="C3">
-        <v>0.09708769551332842</v>
+        <v>0.09991833334985546</v>
       </c>
       <c r="D3">
-        <v>15.463650162682617</v>
+        <v>12.884914756273805</v>
       </c>
       <c r="E3">
-        <v>2.54883</v>
+        <v>3.05915</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1628,16 +1735,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-35.48411314480903</v>
+        <v>-31.49612836162706</v>
       </c>
       <c r="C4">
-        <v>0.09997183587943215</v>
+        <v>0.09090753803219676</v>
       </c>
       <c r="D4">
-        <v>505.5335040817554</v>
+        <v>15.153083939664794</v>
       </c>
       <c r="E4">
-        <v>2.20744</v>
+        <v>2.67847</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1645,16 +1752,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-31.609093360397026</v>
+        <v>-29.4338272078274</v>
       </c>
       <c r="C5">
-        <v>0.09974384271871917</v>
+        <v>0.09943259781395204</v>
       </c>
       <c r="D5">
-        <v>43.98912747130811</v>
+        <v>29.461218489763915</v>
       </c>
       <c r="E5">
-        <v>0.39967</v>
+        <v>1.00655</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1662,16 +1769,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-31.347853648125536</v>
+        <v>-28.94409493284953</v>
       </c>
       <c r="C6">
-        <v>0.08595090383692074</v>
+        <v>0.09937579868892489</v>
       </c>
       <c r="D6">
-        <v>72.32365543742004</v>
+        <v>83.11809983564123</v>
       </c>
       <c r="E6">
-        <v>0.33391</v>
+        <v>0.30425</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1679,16 +1786,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-31.133850603741735</v>
+        <v>-28.748245514094155</v>
       </c>
       <c r="C7">
-        <v>0.0977901483178447</v>
+        <v>0.09972199728437069</v>
       </c>
       <c r="D7">
-        <v>139.51183727154736</v>
+        <v>114.57943417414587</v>
       </c>
       <c r="E7">
-        <v>0.07014</v>
+        <v>0.15671</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1696,16 +1803,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-31.119426826100188</v>
+        <v>-28.44949088740222</v>
       </c>
       <c r="C8">
-        <v>0.09939097804973836</v>
+        <v>0.09855963825607178</v>
       </c>
       <c r="D8">
-        <v>142.79404200721143</v>
+        <v>167.33902963615407</v>
       </c>
       <c r="E8">
-        <v>0.04272</v>
+        <v>0.11159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1713,16 +1820,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-31.044858636652737</v>
+        <v>-28.25788333537648</v>
       </c>
       <c r="C9">
-        <v>1.5699722318017089</v>
+        <v>0.09986299857482205</v>
       </c>
       <c r="D9">
-        <v>1000.175325619362</v>
+        <v>272.6181473115511</v>
       </c>
       <c r="E9">
-        <v>0.05762</v>
+        <v>0.06963</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1730,16 +1837,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-31.028605631117063</v>
+        <v>-28.231366609367903</v>
       </c>
       <c r="C10">
-        <v>0.09700178185705166</v>
+        <v>0.09834579520312388</v>
       </c>
       <c r="D10">
-        <v>223.45638923194213</v>
+        <v>290.8017624873883</v>
       </c>
       <c r="E10">
-        <v>0.01363</v>
+        <v>0.06636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1747,16 +1854,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-31.0071013268542</v>
+        <v>-28.197153525014528</v>
       </c>
       <c r="C11">
-        <v>0.0966339483475601</v>
+        <v>0.09948224755074164</v>
       </c>
       <c r="D11">
-        <v>301.6641432409274</v>
+        <v>377.6077242846913</v>
       </c>
       <c r="E11">
-        <v>0.01494</v>
+        <v>0.05918</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1764,16 +1871,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-31.006660539285374</v>
+        <v>-28.18060662135933</v>
       </c>
       <c r="C12">
-        <v>0.09926967832303944</v>
+        <v>0.09769029374388906</v>
       </c>
       <c r="D12">
-        <v>273.71802382182983</v>
+        <v>457.4124958597822</v>
       </c>
       <c r="E12">
-        <v>0.00318</v>
+        <v>0.04798</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1781,16 +1888,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-31.006620070868525</v>
+        <v>-28.161569432245376</v>
       </c>
       <c r="C13">
-        <v>0.638972106929903</v>
+        <v>0.8618509745890749</v>
       </c>
       <c r="D13">
-        <v>1000.4108704082365</v>
+        <v>3600.250948669663</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0.0127</v>
       </c>
     </row>
   </sheetData>
@@ -1798,9 +1905,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1828,16 +1935,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-157.84303131657305</v>
+        <v>-153.34243984424174</v>
       </c>
       <c r="C2">
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03184081655065918</v>
+        <v>0.0349854931484375</v>
       </c>
       <c r="E2">
-        <v>26.54123</v>
+        <v>28.64314</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1845,16 +1952,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-39.84604607056181</v>
+        <v>-38.50478822892183</v>
       </c>
       <c r="C3">
-        <v>0.09930956740776001</v>
+        <v>0.08640210072890118</v>
       </c>
       <c r="D3">
-        <v>25.299846782245485</v>
+        <v>15.669927332491822</v>
       </c>
       <c r="E3">
-        <v>3.30898</v>
+        <v>2.42078</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1862,16 +1969,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-31.65972515085631</v>
+        <v>-33.00618346101905</v>
       </c>
       <c r="C4">
-        <v>0.231284412226936</v>
+        <v>0.09526468604732498</v>
       </c>
       <c r="D4">
-        <v>1000.0998199104489</v>
+        <v>40.31850352640857</v>
       </c>
       <c r="E4">
-        <v>0.81306</v>
+        <v>0.95093</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1879,16 +1986,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-31.498896218535748</v>
+        <v>-30.544485002928514</v>
       </c>
       <c r="C5">
-        <v>0.0889172031948103</v>
+        <v>0.09777585668883461</v>
       </c>
       <c r="D5">
-        <v>42.004489139029786</v>
+        <v>100.75719286922669</v>
       </c>
       <c r="E5">
-        <v>0.38441</v>
+        <v>0.50797</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1896,16 +2003,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-31.222525652746526</v>
+        <v>-30.213083656216035</v>
       </c>
       <c r="C6">
-        <v>0.09831116110297575</v>
+        <v>0.0997030889783084</v>
       </c>
       <c r="D6">
-        <v>48.967047616872556</v>
+        <v>86.84111600251086</v>
       </c>
       <c r="E6">
-        <v>0.21903</v>
+        <v>0.1851</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1913,16 +2020,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-31.116440129953887</v>
+        <v>-30.157972746871714</v>
       </c>
       <c r="C7">
-        <v>0.09888599747726497</v>
+        <v>0.09918424408765449</v>
       </c>
       <c r="D7">
-        <v>62.74132119957129</v>
+        <v>89.95976496791272</v>
       </c>
       <c r="E7">
-        <v>0.06818</v>
+        <v>0.20709</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1930,16 +2037,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-31.106290732073816</v>
+        <v>-29.6295015043853</v>
       </c>
       <c r="C8">
-        <v>0.09980775288663757</v>
+        <v>0.07235048419595229</v>
       </c>
       <c r="D8">
-        <v>102.2786329819469</v>
+        <v>134.00098358279772</v>
       </c>
       <c r="E8">
-        <v>0.03376</v>
+        <v>0.14726</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1947,16 +2054,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-31.054677770061943</v>
+        <v>-29.59173146399376</v>
       </c>
       <c r="C9">
-        <v>0.09933462480036788</v>
+        <v>0.09876388150102823</v>
       </c>
       <c r="D9">
-        <v>220.32994916634362</v>
+        <v>300.07919671793667</v>
       </c>
       <c r="E9">
-        <v>0.02947</v>
+        <v>0.10607</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1964,718 +2071,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-31.051130621523164</v>
+        <v>-29.56039280930745</v>
       </c>
       <c r="C10">
-        <v>0.08949877898563656</v>
+        <v>0.203861865415584</v>
       </c>
       <c r="D10">
-        <v>217.84964857854382</v>
-      </c>
-      <c r="E10">
-        <v>0.02274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-31.010826336444822</v>
-      </c>
-      <c r="C11">
-        <v>0.08609374323963635</v>
-      </c>
-      <c r="D11">
-        <v>334.1175367048143</v>
-      </c>
-      <c r="E11">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-163.23013416781706</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>0.041056003243286135</v>
-      </c>
-      <c r="E2">
-        <v>30.94035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-37.6008863360471</v>
-      </c>
-      <c r="C3">
-        <v>0.14413185081204782</v>
-      </c>
-      <c r="D3">
-        <v>1000.104815146253</v>
-      </c>
-      <c r="E3">
-        <v>2.72723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-33.595695816505064</v>
-      </c>
-      <c r="C4">
-        <v>0.0998177701165573</v>
-      </c>
-      <c r="D4">
-        <v>31.65160712782605</v>
-      </c>
-      <c r="E4">
-        <v>1.25696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-32.87214783614094</v>
-      </c>
-      <c r="C5">
-        <v>0.09986794779058691</v>
-      </c>
-      <c r="D5">
-        <v>63.38563044903235</v>
-      </c>
-      <c r="E5">
-        <v>0.64641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-32.44910088370622</v>
-      </c>
-      <c r="C6">
-        <v>0.09939638350151986</v>
-      </c>
-      <c r="D6">
-        <v>91.42676260302918</v>
-      </c>
-      <c r="E6">
-        <v>0.6926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-32.149605343259466</v>
-      </c>
-      <c r="C7">
-        <v>0.08972751455628905</v>
-      </c>
-      <c r="D7">
-        <v>98.54637750732617</v>
-      </c>
-      <c r="E7">
-        <v>0.24172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-31.972063992442084</v>
-      </c>
-      <c r="C8">
-        <v>0.09958771313302908</v>
-      </c>
-      <c r="D8">
-        <v>262.45626478802745</v>
-      </c>
-      <c r="E8">
-        <v>0.12919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-31.946346844743992</v>
-      </c>
-      <c r="C9">
-        <v>0.09738448754538612</v>
-      </c>
-      <c r="D9">
-        <v>232.05748896548255</v>
-      </c>
-      <c r="E9">
-        <v>0.08229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-31.933357827957472</v>
-      </c>
-      <c r="C10">
-        <v>0.07898962979076897</v>
-      </c>
-      <c r="D10">
-        <v>319.4010918179232</v>
-      </c>
-      <c r="E10">
-        <v>0.05035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-31.85100159811641</v>
-      </c>
-      <c r="C11">
-        <v>0.09910890416922152</v>
-      </c>
-      <c r="D11">
-        <v>312.10719913147983</v>
-      </c>
-      <c r="E11">
-        <v>0.06032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-31.830512533122647</v>
-      </c>
-      <c r="C12">
-        <v>1.2554141526794722</v>
-      </c>
-      <c r="D12">
-        <v>1000.3745050708425</v>
-      </c>
-      <c r="E12">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-140.6510758175787</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>0.034748116625</v>
-      </c>
-      <c r="E2">
-        <v>27.89847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-35.63461617042404</v>
-      </c>
-      <c r="C3">
-        <v>0.09991833334985546</v>
-      </c>
-      <c r="D3">
-        <v>9.978191290850708</v>
-      </c>
-      <c r="E3">
-        <v>3.05915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-31.49612836162706</v>
-      </c>
-      <c r="C4">
-        <v>0.09090753803219676</v>
-      </c>
-      <c r="D4">
-        <v>9.415091254367432</v>
-      </c>
-      <c r="E4">
-        <v>2.67847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-29.4338272078274</v>
-      </c>
-      <c r="C5">
-        <v>0.09943259781395204</v>
-      </c>
-      <c r="D5">
-        <v>20.130768997349975</v>
-      </c>
-      <c r="E5">
-        <v>1.00655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-28.94409493284953</v>
-      </c>
-      <c r="C6">
-        <v>0.09937579868892489</v>
-      </c>
-      <c r="D6">
-        <v>44.055377105169065</v>
-      </c>
-      <c r="E6">
-        <v>0.30425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-28.748245514094155</v>
-      </c>
-      <c r="C7">
-        <v>0.09972199728437069</v>
-      </c>
-      <c r="D7">
-        <v>67.7770291374115</v>
-      </c>
-      <c r="E7">
-        <v>0.15671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-28.44949088740222</v>
-      </c>
-      <c r="C8">
-        <v>0.09855963825607178</v>
-      </c>
-      <c r="D8">
-        <v>91.6588820705984</v>
-      </c>
-      <c r="E8">
-        <v>0.11159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-28.25788333537648</v>
-      </c>
-      <c r="C9">
-        <v>0.09986299857482205</v>
-      </c>
-      <c r="D9">
-        <v>173.87147858391796</v>
-      </c>
-      <c r="E9">
-        <v>0.06963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-28.231366609367903</v>
-      </c>
-      <c r="C10">
-        <v>0.09834579520312388</v>
-      </c>
-      <c r="D10">
-        <v>176.2424550340829</v>
-      </c>
-      <c r="E10">
-        <v>0.06636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-28.197153525014528</v>
-      </c>
-      <c r="C11">
-        <v>0.09948224755074164</v>
-      </c>
-      <c r="D11">
-        <v>247.27082266998707</v>
-      </c>
-      <c r="E11">
-        <v>0.05918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-28.18060662135933</v>
-      </c>
-      <c r="C12">
-        <v>0.09769029374388906</v>
-      </c>
-      <c r="D12">
-        <v>240.09363542963428</v>
-      </c>
-      <c r="E12">
-        <v>0.04798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-28.161567866889513</v>
-      </c>
-      <c r="C13">
-        <v>0.926738066411496</v>
-      </c>
-      <c r="D13">
-        <v>1000.4015877012487</v>
-      </c>
-      <c r="E13">
-        <v>0.0127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-28.16112268052409</v>
-      </c>
-      <c r="C14">
-        <v>0.09949420146171586</v>
-      </c>
-      <c r="D14">
-        <v>495.6052885571349</v>
-      </c>
-      <c r="E14">
-        <v>0.00052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>-28.16058295491581</v>
-      </c>
-      <c r="C15">
-        <v>0.09937684556667264</v>
-      </c>
-      <c r="D15">
-        <v>528.5370429452014</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-153.34243984424174</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>0.04959055415380859</v>
-      </c>
-      <c r="E2">
-        <v>28.64314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-38.50478822892183</v>
-      </c>
-      <c r="C3">
-        <v>0.08640210072890118</v>
-      </c>
-      <c r="D3">
-        <v>9.0360234964209</v>
-      </c>
-      <c r="E3">
-        <v>2.42078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-33.00618346101905</v>
-      </c>
-      <c r="C4">
-        <v>0.09526468604732498</v>
-      </c>
-      <c r="D4">
-        <v>37.19933041607788</v>
-      </c>
-      <c r="E4">
-        <v>0.95093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-30.544485002928514</v>
-      </c>
-      <c r="C5">
-        <v>0.09777585668883461</v>
-      </c>
-      <c r="D5">
-        <v>82.07593710341028</v>
-      </c>
-      <c r="E5">
-        <v>0.50797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-30.213083656216035</v>
-      </c>
-      <c r="C6">
-        <v>0.0997030889783084</v>
-      </c>
-      <c r="D6">
-        <v>63.70934916816943</v>
-      </c>
-      <c r="E6">
-        <v>0.1851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-30.157972746871714</v>
-      </c>
-      <c r="C7">
-        <v>0.09918424408765449</v>
-      </c>
-      <c r="D7">
-        <v>63.32664009445825</v>
-      </c>
-      <c r="E7">
-        <v>0.20709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-29.6295015043853</v>
-      </c>
-      <c r="C8">
-        <v>0.07235048419595229</v>
-      </c>
-      <c r="D8">
-        <v>129.3257924459983</v>
-      </c>
-      <c r="E8">
-        <v>0.14726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-29.59173146399376</v>
-      </c>
-      <c r="C9">
-        <v>0.09876388150102823</v>
-      </c>
-      <c r="D9">
-        <v>233.0724620539851</v>
-      </c>
-      <c r="E9">
-        <v>0.10607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-29.560392103114538</v>
-      </c>
-      <c r="C10">
-        <v>0.275672115649421</v>
-      </c>
-      <c r="D10">
-        <v>1000.146096726242</v>
+        <v>3600.2282086607006</v>
       </c>
       <c r="E10">
         <v>0.00387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-29.551043634795917</v>
-      </c>
-      <c r="C11">
-        <v>0.09941201586080083</v>
-      </c>
-      <c r="D11">
-        <v>311.75191535375234</v>
-      </c>
-      <c r="E11">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2124,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.030949041202026368</v>
+        <v>0.08527766096142578</v>
       </c>
       <c r="E2">
         <v>30.64447</v>
@@ -2736,7 +2141,7 @@
         <v>0.0976159562811085</v>
       </c>
       <c r="D3">
-        <v>14.820140261940796</v>
+        <v>25.436640291703615</v>
       </c>
       <c r="E3">
         <v>2.87145</v>
@@ -2753,7 +2158,7 @@
         <v>0.09765564174409612</v>
       </c>
       <c r="D4">
-        <v>28.882981889775145</v>
+        <v>58.13488953011145</v>
       </c>
       <c r="E4">
         <v>1.28283</v>
@@ -2770,7 +2175,7 @@
         <v>0.08954243530730495</v>
       </c>
       <c r="D5">
-        <v>39.15670166672046</v>
+        <v>73.93077102324769</v>
       </c>
       <c r="E5">
         <v>0.55082</v>
@@ -2787,7 +2192,7 @@
         <v>0.09544825853529813</v>
       </c>
       <c r="D6">
-        <v>60.82490355992261</v>
+        <v>112.87316406644337</v>
       </c>
       <c r="E6">
         <v>0.50228</v>
@@ -2804,7 +2209,7 @@
         <v>0.09758845120007216</v>
       </c>
       <c r="D7">
-        <v>78.20281009225036</v>
+        <v>143.40301793772718</v>
       </c>
       <c r="E7">
         <v>0.14442</v>
@@ -2821,7 +2226,7 @@
         <v>0.09845894705179171</v>
       </c>
       <c r="D8">
-        <v>91.56034547958349</v>
+        <v>151.53811355928661</v>
       </c>
       <c r="E8">
         <v>0.09503</v>
@@ -2838,7 +2243,7 @@
         <v>0.09995625909613534</v>
       </c>
       <c r="D9">
-        <v>201.86699126420655</v>
+        <v>383.1787493092135</v>
       </c>
       <c r="E9">
         <v>0.07389</v>
@@ -2855,7 +2260,7 @@
         <v>0.0993922923859267</v>
       </c>
       <c r="D10">
-        <v>252.15084306490468</v>
+        <v>530.3650108450474</v>
       </c>
       <c r="E10">
         <v>0.01898</v>
@@ -2872,7 +2277,7 @@
         <v>0.09329924643759051</v>
       </c>
       <c r="D11">
-        <v>226.4110159936249</v>
+        <v>449.1439036008651</v>
       </c>
       <c r="E11">
         <v>0.00509</v>
@@ -2889,7 +2294,7 @@
         <v>0.09766928891629484</v>
       </c>
       <c r="D12">
-        <v>274.990045984517</v>
+        <v>557.79633359101</v>
       </c>
       <c r="E12">
         <v>0.00207</v>
@@ -2906,7 +2311,7 @@
         <v>0.0970818936781177</v>
       </c>
       <c r="D13">
-        <v>286.45803773072777</v>
+        <v>519.1920918447923</v>
       </c>
       <c r="E13">
         <v>0.0</v>
